--- a/res/page/车场管理/CarPassAndOutPage.xlsx
+++ b/res/page/车场管理/CarPassAndOutPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>别名</t>
   </si>
@@ -102,16 +102,40 @@
     <t>//div[@class='input-group-addon']//input[@placeholder='请选择']</t>
   </si>
   <si>
+    <t>车牌号码选项</t>
+  </si>
+  <si>
+    <t>//ul[@class='el-scrollbar__view el-select-dropdown__list']/li/span[text()='车牌号码']</t>
+  </si>
+  <si>
     <t>搜索框</t>
   </si>
   <si>
     <t>//input[@placeholder='车牌号']</t>
   </si>
   <si>
+    <t>车牌号码搜索框</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='车牌号码']</t>
+  </si>
+  <si>
+    <t>时间选择</t>
+  </si>
+  <si>
+    <t>//i[@class='el-input__icon el-range__icon el-icon-time']</t>
+  </si>
+  <si>
+    <t>最近三个月</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'最近三个月')]</t>
+  </si>
+  <si>
     <t>搜索按钮</t>
   </si>
   <si>
-    <t>//div[@class='form-group search-group']</t>
+    <t>//a[@class='ake_btn ake_btn_blue search-btn']</t>
   </si>
   <si>
     <t>设置剩余车位数</t>
@@ -193,6 +217,36 @@
   </si>
   <si>
     <t>//div[@class='el-table__fixed']</t>
+  </si>
+  <si>
+    <t>最终车牌</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'最终车牌')]/following-sibling::*[1]/input</t>
+  </si>
+  <si>
+    <t>确认校正</t>
+  </si>
+  <si>
+    <t>//button[text()='确认校正']</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>//a[@class='close']</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[text()= "导出"]</t>
+  </si>
+  <si>
+    <t>欠费时间选择</t>
+  </si>
+  <si>
+    <t>//label[text()='欠费时间']/..//i[@class='el-input__icon el-range__icon el-icon-time']</t>
   </si>
 </sst>
 </file>
@@ -200,8 +254,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -222,14 +276,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +314,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +327,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -272,6 +349,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -280,6 +372,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -287,83 +418,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -380,72 +434,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,18 +554,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,90 +615,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,17 +643,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,31 +674,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,15 +708,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -686,6 +716,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +760,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,10 +1260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1369,7 +1423,7 @@
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1384,158 +1438,257 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" ht="29" customHeight="1" spans="1:3">
+    <row r="16" ht="27" customHeight="1" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="29" customHeight="1" spans="1:3">
+    <row r="17" ht="27" customHeight="1" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" ht="29" customHeight="1" spans="1:3">
-      <c r="A18" s="3" t="s">
+    <row r="18" ht="27" customHeight="1" spans="1:3">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" ht="29" customHeight="1" spans="1:3">
+    <row r="19" ht="27" customHeight="1" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="29" customHeight="1" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="29" customHeight="1" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="1:3">
-      <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="22" ht="29" customHeight="1" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="1:3">
-      <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="23" ht="29" customHeight="1" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" ht="24" customHeight="1" spans="1:3">
-      <c r="A24" s="4" t="s">
+    <row r="24" ht="29" customHeight="1" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" ht="21" customHeight="1" spans="1:3">
-      <c r="A25" s="4" t="s">
+    <row r="25" ht="29" customHeight="1" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" ht="21" customHeight="1" spans="1:3">
-      <c r="A26" s="3" t="s">
+    <row r="26" ht="24" customHeight="1" spans="1:3">
+      <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" ht="22" customHeight="1" spans="1:3">
-      <c r="A27" s="5" t="s">
+    <row r="27" ht="24" customHeight="1" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" ht="21" customHeight="1" spans="1:3">
-      <c r="A28" s="3" t="s">
+    <row r="28" ht="24" customHeight="1" spans="1:3">
+      <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="1:3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="30" ht="21" customHeight="1" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" ht="22" customHeight="1" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" ht="21" customHeight="1" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" ht="21" customHeight="1" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" ht="21" customHeight="1" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" ht="21" customHeight="1" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" ht="21" customHeight="1" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
